--- a/data/processed/state_overviews/new-york_overview.xlsx
+++ b/data/processed/state_overviews/new-york_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>8743</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>8,743</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Albany County</t>
         </is>
       </c>
-      <c r="B2">
-        <v>264</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Allegany County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>29</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Bronx County</t>
         </is>
       </c>
-      <c r="B4">
-        <v>342</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Broome County</t>
         </is>
       </c>
-      <c r="B5">
-        <v>93</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Cattaraugus County</t>
         </is>
       </c>
-      <c r="B6">
-        <v>44</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,8 +626,10 @@
           <t>Cayuga County</t>
         </is>
       </c>
-      <c r="B7">
-        <v>41</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,8 +658,10 @@
           <t>Chautauqua County</t>
         </is>
       </c>
-      <c r="B8">
-        <v>86</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,8 +690,10 @@
           <t>Chemung County</t>
         </is>
       </c>
-      <c r="B9">
-        <v>41</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,8 +722,10 @@
           <t>Chenango County</t>
         </is>
       </c>
-      <c r="B10">
-        <v>18</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,8 +754,10 @@
           <t>Clinton County</t>
         </is>
       </c>
-      <c r="B11">
-        <v>37</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -764,8 +786,10 @@
           <t>Columbia County</t>
         </is>
       </c>
-      <c r="B12">
-        <v>65</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -794,8 +818,10 @@
           <t>Cortland County</t>
         </is>
       </c>
-      <c r="B13">
-        <v>28</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -824,8 +850,10 @@
           <t>Delaware County</t>
         </is>
       </c>
-      <c r="B14">
-        <v>41</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -854,8 +882,10 @@
           <t>Dutchess County</t>
         </is>
       </c>
-      <c r="B15">
-        <v>128</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -884,8 +914,10 @@
           <t>Erie County</t>
         </is>
       </c>
-      <c r="B16">
-        <v>407</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -914,8 +946,10 @@
           <t>Essex County</t>
         </is>
       </c>
-      <c r="B17">
-        <v>38</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -944,8 +978,10 @@
           <t>Franklin County</t>
         </is>
       </c>
-      <c r="B18">
-        <v>40</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -974,8 +1010,10 @@
           <t>Fulton County</t>
         </is>
       </c>
-      <c r="B19">
-        <v>19</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1004,8 +1042,10 @@
           <t>Genesee County</t>
         </is>
       </c>
-      <c r="B20">
-        <v>25</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1034,8 +1074,10 @@
           <t>Greene County</t>
         </is>
       </c>
-      <c r="B21">
-        <v>28</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1064,8 +1106,10 @@
           <t>Hamilton County</t>
         </is>
       </c>
-      <c r="B22">
-        <v>7</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1094,8 +1138,10 @@
           <t>Herkimer County</t>
         </is>
       </c>
-      <c r="B23">
-        <v>22</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1124,8 +1170,10 @@
           <t>Jefferson County</t>
         </is>
       </c>
-      <c r="B24">
-        <v>65</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1154,8 +1202,10 @@
           <t>Kings County</t>
         </is>
       </c>
-      <c r="B25">
-        <v>847</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>847</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1184,8 +1234,10 @@
           <t>Lewis County</t>
         </is>
       </c>
-      <c r="B26">
-        <v>20</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1214,8 +1266,10 @@
           <t>Livingston County</t>
         </is>
       </c>
-      <c r="B27">
-        <v>16</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1244,8 +1298,10 @@
           <t>Madison County</t>
         </is>
       </c>
-      <c r="B28">
-        <v>43</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1274,8 +1330,10 @@
           <t>Monroe County</t>
         </is>
       </c>
-      <c r="B29">
-        <v>335</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1304,8 +1362,10 @@
           <t>Montgomery County</t>
         </is>
       </c>
-      <c r="B30">
-        <v>22</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1334,8 +1394,10 @@
           <t>Nassau County</t>
         </is>
       </c>
-      <c r="B31">
-        <v>353</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1364,8 +1426,10 @@
           <t>New York County</t>
         </is>
       </c>
-      <c r="B32">
-        <v>2267</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2,267</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1394,8 +1458,10 @@
           <t>Niagara County</t>
         </is>
       </c>
-      <c r="B33">
-        <v>62</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1424,8 +1490,10 @@
           <t>Oneida County</t>
         </is>
       </c>
-      <c r="B34">
-        <v>97</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1454,8 +1522,10 @@
           <t>Onondaga County</t>
         </is>
       </c>
-      <c r="B35">
-        <v>236</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1484,8 +1554,10 @@
           <t>Ontario County</t>
         </is>
       </c>
-      <c r="B36">
-        <v>68</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1514,8 +1586,10 @@
           <t>Orange County</t>
         </is>
       </c>
-      <c r="B37">
-        <v>102</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1544,8 +1618,10 @@
           <t>Orleans County</t>
         </is>
       </c>
-      <c r="B38">
-        <v>15</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1574,8 +1650,10 @@
           <t>Oswego County</t>
         </is>
       </c>
-      <c r="B39">
-        <v>41</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1604,8 +1682,10 @@
           <t>Otsego County</t>
         </is>
       </c>
-      <c r="B40">
-        <v>40</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1634,8 +1714,10 @@
           <t>Putnam County</t>
         </is>
       </c>
-      <c r="B41">
-        <v>45</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1664,8 +1746,10 @@
           <t>Queens County</t>
         </is>
       </c>
-      <c r="B42">
-        <v>366</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1694,8 +1778,10 @@
           <t>Rensselaer County</t>
         </is>
       </c>
-      <c r="B43">
-        <v>74</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1724,8 +1810,10 @@
           <t>Richmond County</t>
         </is>
       </c>
-      <c r="B44">
-        <v>105</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1754,8 +1842,10 @@
           <t>Rockland County</t>
         </is>
       </c>
-      <c r="B45">
-        <v>146</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1784,8 +1874,10 @@
           <t>Saratoga County</t>
         </is>
       </c>
-      <c r="B46">
-        <v>79</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1814,8 +1906,10 @@
           <t>Schenectady County</t>
         </is>
       </c>
-      <c r="B47">
-        <v>55</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1844,8 +1938,10 @@
           <t>Schoharie County</t>
         </is>
       </c>
-      <c r="B48">
-        <v>13</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1874,8 +1970,10 @@
           <t>Schuyler County</t>
         </is>
       </c>
-      <c r="B49">
-        <v>10</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1904,8 +2002,10 @@
           <t>Seneca County</t>
         </is>
       </c>
-      <c r="B50">
-        <v>15</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1934,8 +2034,10 @@
           <t>St. Lawrence County</t>
         </is>
       </c>
-      <c r="B51">
-        <v>76</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1964,8 +2066,10 @@
           <t>Steuben County</t>
         </is>
       </c>
-      <c r="B52">
-        <v>56</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1994,8 +2098,10 @@
           <t>Suffolk County</t>
         </is>
       </c>
-      <c r="B53">
-        <v>419</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2024,8 +2130,10 @@
           <t>Sullivan County</t>
         </is>
       </c>
-      <c r="B54">
-        <v>40</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2054,8 +2162,10 @@
           <t>Tioga County</t>
         </is>
       </c>
-      <c r="B55">
-        <v>17</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2084,8 +2194,10 @@
           <t>Tompkins County</t>
         </is>
       </c>
-      <c r="B56">
-        <v>110</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2114,8 +2226,10 @@
           <t>Ulster County</t>
         </is>
       </c>
-      <c r="B57">
-        <v>96</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2144,8 +2258,10 @@
           <t>Warren County</t>
         </is>
       </c>
-      <c r="B58">
-        <v>46</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2174,8 +2290,10 @@
           <t>Washington County</t>
         </is>
       </c>
-      <c r="B59">
-        <v>37</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2204,8 +2322,10 @@
           <t>Wayne County</t>
         </is>
       </c>
-      <c r="B60">
-        <v>21</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2234,8 +2354,10 @@
           <t>Westchester County</t>
         </is>
       </c>
-      <c r="B61">
-        <v>403</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2264,8 +2386,10 @@
           <t>Wyoming County</t>
         </is>
       </c>
-      <c r="B62">
-        <v>23</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -2294,8 +2418,10 @@
           <t>Yates County</t>
         </is>
       </c>
-      <c r="B63">
-        <v>19</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -2315,6 +2441,38 @@
       <c r="F63" t="inlineStr">
         <is>
           <t>57.89%</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>8,743</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>$29,720,633,621</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>8.36%</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>-12.97%</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>69.53%</t>
         </is>
       </c>
     </row>
@@ -2369,8 +2527,10 @@
           <t>Congressional District 1</t>
         </is>
       </c>
-      <c r="B2">
-        <v>245</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2399,8 +2559,10 @@
           <t>Congressional District 10</t>
         </is>
       </c>
-      <c r="B3">
-        <v>998</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>998</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2429,8 +2591,10 @@
           <t>Congressional District 11</t>
         </is>
       </c>
-      <c r="B4">
-        <v>134</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2459,8 +2623,10 @@
           <t>Congressional District 12</t>
         </is>
       </c>
-      <c r="B5">
-        <v>1263</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1,263</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2489,8 +2655,10 @@
           <t>Congressional District 13</t>
         </is>
       </c>
-      <c r="B6">
-        <v>376</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2519,8 +2687,10 @@
           <t>Congressional District 14</t>
         </is>
       </c>
-      <c r="B7">
-        <v>107</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2549,8 +2719,10 @@
           <t>Congressional District 15</t>
         </is>
       </c>
-      <c r="B8">
-        <v>232</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2579,8 +2751,10 @@
           <t>Congressional District 16</t>
         </is>
       </c>
-      <c r="B9">
-        <v>257</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -2609,8 +2783,10 @@
           <t>Congressional District 17</t>
         </is>
       </c>
-      <c r="B10">
-        <v>352</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -2639,8 +2815,10 @@
           <t>Congressional District 18</t>
         </is>
       </c>
-      <c r="B11">
-        <v>285</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -2669,8 +2847,10 @@
           <t>Congressional District 19</t>
         </is>
       </c>
-      <c r="B12">
-        <v>494</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2699,8 +2879,10 @@
           <t>Congressional District 2</t>
         </is>
       </c>
-      <c r="B13">
-        <v>174</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2729,8 +2911,10 @@
           <t>Congressional District 20</t>
         </is>
       </c>
-      <c r="B14">
-        <v>447</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2759,8 +2943,10 @@
           <t>Congressional District 21</t>
         </is>
       </c>
-      <c r="B15">
-        <v>425</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2789,8 +2975,10 @@
           <t>Congressional District 22</t>
         </is>
       </c>
-      <c r="B16">
-        <v>376</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2819,8 +3007,10 @@
           <t>Congressional District 23</t>
         </is>
       </c>
-      <c r="B17">
-        <v>346</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2849,8 +3039,10 @@
           <t>Congressional District 24</t>
         </is>
       </c>
-      <c r="B18">
-        <v>359</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2879,8 +3071,10 @@
           <t>Congressional District 25</t>
         </is>
       </c>
-      <c r="B19">
-        <v>338</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2909,8 +3103,10 @@
           <t>Congressional District 26</t>
         </is>
       </c>
-      <c r="B20">
-        <v>369</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2939,8 +3135,10 @@
           <t>Congressional District 3</t>
         </is>
       </c>
-      <c r="B21">
-        <v>230</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2969,8 +3167,10 @@
           <t>Congressional District 4</t>
         </is>
       </c>
-      <c r="B22">
-        <v>149</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2999,8 +3199,10 @@
           <t>Congressional District 5</t>
         </is>
       </c>
-      <c r="B23">
-        <v>107</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3029,8 +3231,10 @@
           <t>Congressional District 6</t>
         </is>
       </c>
-      <c r="B24">
-        <v>120</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3059,8 +3263,10 @@
           <t>Congressional District 7</t>
         </is>
       </c>
-      <c r="B25">
-        <v>237</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3089,8 +3295,10 @@
           <t>Congressional District 8</t>
         </is>
       </c>
-      <c r="B26">
-        <v>133</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3119,8 +3327,10 @@
           <t>Congressional District 9</t>
         </is>
       </c>
-      <c r="B27">
-        <v>190</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3149,8 +3359,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B28">
-        <v>8743</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>8,743</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3224,8 +3436,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>2170</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2,170</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -3254,8 +3468,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>2456</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2,456</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3284,8 +3500,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>1333</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1,333</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3314,8 +3532,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>792</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3344,8 +3564,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>1659</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1,659</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3374,8 +3596,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>333</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3404,8 +3628,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>8743</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>8,743</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -3479,8 +3705,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>1217</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1,217</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -3509,8 +3737,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>1049</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1,049</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3539,8 +3769,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>263</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3569,8 +3801,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>802</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>802</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3599,8 +3833,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>100</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3629,8 +3865,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>2286</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2,286</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3659,8 +3897,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>173</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -3689,8 +3929,10 @@
           <t>Mutual/Membership Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>5</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -3719,8 +3961,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B10">
-        <v>688</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>688</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -3749,8 +3993,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B11">
-        <v>143</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -3779,8 +4025,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B12">
-        <v>1909</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1,909</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -3809,8 +4057,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B13">
-        <v>108</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -3839,8 +4089,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B14">
-        <v>8743</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>8,743</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/new-york_overview.xlsx
+++ b/data/processed/state_overviews/new-york_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,263 +431,263 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Albany County</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$2,406,871,046</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.19%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-18.98%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>75.38%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Allegany County</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>8,743</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$51,695,515</t>
+          <t>$29,720,633,621</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>8.36%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-37.98%</t>
+          <t>-12.97%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>93.10%</t>
+          <t>69.53%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bronx County</t>
+          <t>Albany County</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>264</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$2,234,969,031</t>
+          <t>$2,406,871,046</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.81%</t>
+          <t>6.19%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-29.98%</t>
+          <t>-18.98%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>84.21%</t>
+          <t>75.38%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Broome County</t>
+          <t>Allegany County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$75,747,507</t>
+          <t>$51,695,515</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.08%</t>
+          <t>2.18%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-16.89%</t>
+          <t>-37.98%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>74.19%</t>
+          <t>93.10%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cattaraugus County</t>
+          <t>Bronx County</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>342</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$58,357,343</t>
+          <t>$2,234,969,031</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.11%</t>
+          <t>4.81%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-32.60%</t>
+          <t>-29.98%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>72.73%</t>
+          <t>84.21%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cayuga County</t>
+          <t>Broome County</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>93</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$133,706,446</t>
+          <t>$75,747,507</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.08%</t>
+          <t>7.08%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-19.56%</t>
+          <t>-16.89%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>78.05%</t>
+          <t>74.19%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Chautauqua County</t>
+          <t>Cattaraugus County</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$61,628,665</t>
+          <t>$58,357,343</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11.47%</t>
+          <t>8.11%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-15.76%</t>
+          <t>-32.60%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>74.42%</t>
+          <t>72.73%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Chemung County</t>
+          <t>Cayuga County</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -697,1297 +697,1297 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$42,068,377</t>
+          <t>$133,706,446</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8.55%</t>
+          <t>10.08%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-7.21%</t>
+          <t>-19.56%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>63.41%</t>
+          <t>78.05%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Chenango County</t>
+          <t>Chautauqua County</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>86</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$21,563,962</t>
+          <t>$61,628,665</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11.52%</t>
+          <t>11.47%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-16.59%</t>
+          <t>-15.76%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>88.89%</t>
+          <t>74.42%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Clinton County</t>
+          <t>Chemung County</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$37,650,159</t>
+          <t>$42,068,377</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.71%</t>
+          <t>8.55%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-21.85%</t>
+          <t>-7.21%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>75.68%</t>
+          <t>63.41%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Columbia County</t>
+          <t>Chenango County</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$21,722,705</t>
+          <t>$21,563,962</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>16.10%</t>
+          <t>11.52%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-4.05%</t>
+          <t>-16.59%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>61.54%</t>
+          <t>88.89%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Cortland County</t>
+          <t>Clinton County</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$30,007,120</t>
+          <t>$37,650,159</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>17.46%</t>
+          <t>6.71%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-8.64%</t>
+          <t>-21.85%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>64.29%</t>
+          <t>75.68%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Delaware County</t>
+          <t>Columbia County</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$53,246,645</t>
+          <t>$21,722,705</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6.82%</t>
+          <t>16.10%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-22.88%</t>
+          <t>-4.05%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>75.61%</t>
+          <t>61.54%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dutchess County</t>
+          <t>Cortland County</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$125,953,472</t>
+          <t>$30,007,120</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10.64%</t>
+          <t>17.46%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-4.76%</t>
+          <t>-8.64%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>59.38%</t>
+          <t>64.29%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Erie County</t>
+          <t>Delaware County</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$652,401,029</t>
+          <t>$53,246,645</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>6.93%</t>
+          <t>6.82%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-13.55%</t>
+          <t>-22.88%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>76.90%</t>
+          <t>75.61%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Essex County</t>
+          <t>Dutchess County</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>128</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$18,518,765</t>
+          <t>$125,953,472</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>8.16%</t>
+          <t>10.64%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-17.13%</t>
+          <t>-4.76%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>65.79%</t>
+          <t>59.38%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Franklin County</t>
+          <t>Erie County</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>407</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$40,779,354</t>
+          <t>$652,401,029</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5.63%</t>
+          <t>6.93%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-19.50%</t>
+          <t>-13.55%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>65.00%</t>
+          <t>76.90%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fulton County</t>
+          <t>Essex County</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$13,523,440</t>
+          <t>$18,518,765</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>8.39%</t>
+          <t>8.16%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-10.31%</t>
+          <t>-17.13%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>73.68%</t>
+          <t>65.79%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Genesee County</t>
+          <t>Franklin County</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$15,428,332</t>
+          <t>$40,779,354</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>20.05%</t>
+          <t>5.63%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-41.55%</t>
+          <t>-19.50%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>76.00%</t>
+          <t>65.00%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Greene County</t>
+          <t>Fulton County</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$8,151,000</t>
+          <t>$13,523,440</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-1.05%</t>
+          <t>8.39%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-46.70%</t>
+          <t>-10.31%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>82.14%</t>
+          <t>73.68%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hamilton County</t>
+          <t>Genesee County</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$3,403,022</t>
+          <t>$15,428,332</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>25.92%</t>
+          <t>20.05%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.76%</t>
+          <t>-41.55%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>76.00%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Herkimer County</t>
+          <t>Greene County</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$6,012,527</t>
+          <t>$8,151,000</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>11.07%</t>
+          <t>-1.05%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-13.48%</t>
+          <t>-46.70%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>72.73%</t>
+          <t>82.14%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Jefferson County</t>
+          <t>Hamilton County</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$82,110,932</t>
+          <t>$3,403,022</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>6.77%</t>
+          <t>25.92%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-21.74%</t>
+          <t>0.76%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>76.92%</t>
+          <t>42.86%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Kings County</t>
+          <t>Herkimer County</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>847</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$3,255,937,610</t>
+          <t>$6,012,527</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>7.98%</t>
+          <t>11.07%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-16.29%</t>
+          <t>-13.48%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>72.61%</t>
+          <t>72.73%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Lewis County</t>
+          <t>Jefferson County</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$6,975,187</t>
+          <t>$82,110,932</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>9.02%</t>
+          <t>6.77%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-24.39%</t>
+          <t>-21.74%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>76.92%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Livingston County</t>
+          <t>Kings County</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>847</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$32,820,899</t>
+          <t>$3,255,937,610</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>5.22%</t>
+          <t>7.98%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-18.12%</t>
+          <t>-16.29%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>72.61%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Madison County</t>
+          <t>Lewis County</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$48,695,424</t>
+          <t>$6,975,187</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>10.55%</t>
+          <t>9.02%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-10.25%</t>
+          <t>-24.39%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>69.77%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Monroe County</t>
+          <t>Livingston County</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$1,205,673,702</t>
+          <t>$32,820,899</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>7.20%</t>
+          <t>5.22%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-12.27%</t>
+          <t>-18.12%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>71.34%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Montgomery County</t>
+          <t>Madison County</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$25,744,272</t>
+          <t>$48,695,424</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2.42%</t>
+          <t>10.55%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-39.37%</t>
+          <t>-10.25%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>77.27%</t>
+          <t>69.77%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Nassau County</t>
+          <t>Monroe County</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>335</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$919,876,295</t>
+          <t>$1,205,673,702</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>7.90%</t>
+          <t>7.20%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-7.69%</t>
+          <t>-12.27%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>64.31%</t>
+          <t>71.34%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>New York County</t>
+          <t>Montgomery County</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2,267</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$12,596,955,661</t>
+          <t>$25,744,272</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>9.42%</t>
+          <t>2.42%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-8.47%</t>
+          <t>-39.37%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>63.26%</t>
+          <t>77.27%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Niagara County</t>
+          <t>Nassau County</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>353</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$56,445,700</t>
+          <t>$919,876,295</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>10.50%</t>
+          <t>7.90%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-12.75%</t>
+          <t>-7.69%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>69.35%</t>
+          <t>64.31%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Oneida County</t>
+          <t>New York County</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>2,267</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$146,658,798</t>
+          <t>$12,596,955,661</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>7.96%</t>
+          <t>9.42%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-10.70%</t>
+          <t>-8.47%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>69.07%</t>
+          <t>63.26%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Onondaga County</t>
+          <t>Niagara County</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$399,958,609</t>
+          <t>$56,445,700</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>8.87%</t>
+          <t>10.50%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-13.03%</t>
+          <t>-12.75%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>68.22%</t>
+          <t>69.35%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Ontario County</t>
+          <t>Oneida County</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>97</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$82,626,836</t>
+          <t>$146,658,798</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>10.80%</t>
+          <t>7.96%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-16.36%</t>
+          <t>-10.70%</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>73.53%</t>
+          <t>69.07%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Orange County</t>
+          <t>Onondaga County</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$172,250,192</t>
+          <t>$399,958,609</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>10.62%</t>
+          <t>8.87%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-13.68%</t>
+          <t>-13.03%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>72.55%</t>
+          <t>68.22%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Orleans County</t>
+          <t>Ontario County</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$12,737,512</t>
+          <t>$82,626,836</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5.79%</t>
+          <t>10.80%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-19.68%</t>
+          <t>-16.36%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>73.33%</t>
+          <t>73.53%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Oswego County</t>
+          <t>Orange County</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$55,489,027</t>
+          <t>$172,250,192</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>6.94%</t>
+          <t>10.62%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-19.36%</t>
+          <t>-13.68%</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>82.93%</t>
+          <t>72.55%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Otsego County</t>
+          <t>Orleans County</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$83,613,445</t>
+          <t>$12,737,512</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.79%</t>
+          <t>5.79%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-8.20%</t>
+          <t>-19.68%</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>72.50%</t>
+          <t>73.33%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Putnam County</t>
+          <t>Oswego County</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$21,445,036</t>
+          <t>$55,489,027</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>9.91%</t>
+          <t>6.94%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-41.94%</t>
+          <t>-19.36%</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>82.93%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Queens County</t>
+          <t>Otsego County</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$1,562,020,271</t>
+          <t>$83,613,445</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>6.68%</t>
+          <t>1.79%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-23.35%</t>
+          <t>-8.20%</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>78.42%</t>
+          <t>72.50%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Rensselaer County</t>
+          <t>Putnam County</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$87,329,228</t>
+          <t>$21,445,036</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>11.85%</t>
+          <t>9.91%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>-15.67%</t>
+          <t>-41.94%</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>74.32%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Richmond County</t>
+          <t>Queens County</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>366</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$310,814,609</t>
+          <t>$1,562,020,271</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>7.68%</t>
+          <t>6.68%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-33.14%</t>
+          <t>-23.35%</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>81.90%</t>
+          <t>78.42%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Rockland County</t>
+          <t>Rensselaer County</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>74</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$213,458,133</t>
+          <t>$87,329,228</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>7.85%</t>
+          <t>11.85%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-8.82%</t>
+          <t>-15.67%</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>63.70%</t>
+          <t>74.32%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Saratoga County</t>
+          <t>Richmond County</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>105</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$89,557,974</t>
+          <t>$310,814,609</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>13.89%</t>
+          <t>7.68%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-11.42%</t>
+          <t>-33.14%</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>69.62%</t>
+          <t>81.90%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Schenectady County</t>
+          <t>Rockland County</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>146</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$107,404,457</t>
+          <t>$213,458,133</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2.57%</t>
+          <t>7.85%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>-13.91%</t>
+          <t>-8.82%</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>63.70%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Schoharie County</t>
+          <t>Saratoga County</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>79</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$6,777,666</t>
+          <t>$89,557,974</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>6.27%</t>
+          <t>13.89%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>-46.81%</t>
+          <t>-11.42%</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>76.92%</t>
+          <t>69.62%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Schuyler County</t>
+          <t>Schenectady County</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$8,670,113</t>
+          <t>$107,404,457</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3.54%</t>
+          <t>2.57%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-22.77%</t>
+          <t>-13.91%</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -1999,480 +1999,512 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Seneca County</t>
+          <t>Schoharie County</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$4,222,419</t>
+          <t>$6,777,666</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>10.85%</t>
+          <t>6.27%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>-2.59%</t>
+          <t>-46.81%</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>53.33%</t>
+          <t>76.92%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>St. Lawrence County</t>
+          <t>Schuyler County</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$74,466,432</t>
+          <t>$8,670,113</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>6.82%</t>
+          <t>3.54%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>-12.82%</t>
+          <t>-22.77%</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>71.05%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Steuben County</t>
+          <t>Seneca County</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$77,896,181</t>
+          <t>$4,222,419</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>12.00%</t>
+          <t>10.85%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>-14.36%</t>
+          <t>-2.59%</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>67.86%</t>
+          <t>53.33%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Suffolk County</t>
+          <t>St. Lawrence County</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$509,694,026</t>
+          <t>$74,466,432</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5.90%</t>
+          <t>6.82%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>-13.47%</t>
+          <t>-12.82%</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>72.08%</t>
+          <t>71.05%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sullivan County</t>
+          <t>Steuben County</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$25,028,059</t>
+          <t>$77,896,181</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4.12%</t>
+          <t>12.00%</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>-11.08%</t>
+          <t>-14.36%</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>62.50%</t>
+          <t>67.86%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Tioga County</t>
+          <t>Suffolk County</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>419</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$7,538,238</t>
+          <t>$509,694,026</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>10.54%</t>
+          <t>5.90%</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>-4.27%</t>
+          <t>-13.47%</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>58.82%</t>
+          <t>72.08%</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Tompkins County</t>
+          <t>Sullivan County</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>$147,784,784</t>
+          <t>$25,028,059</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>10.72%</t>
+          <t>4.12%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>-11.67%</t>
+          <t>-11.08%</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>65.45%</t>
+          <t>62.50%</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Ulster County</t>
+          <t>Tioga County</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>$124,990,865</t>
+          <t>$7,538,238</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>12.84%</t>
+          <t>10.54%</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>-4.02%</t>
+          <t>-4.27%</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>58.33%</t>
+          <t>58.82%</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Warren County</t>
+          <t>Tompkins County</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>110</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>$40,559,548</t>
+          <t>$147,784,784</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>10.51%</t>
+          <t>10.72%</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>-12.60%</t>
+          <t>-11.67%</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>67.39%</t>
+          <t>65.45%</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Washington County</t>
+          <t>Ulster County</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>96</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>$17,881,752</t>
+          <t>$124,990,865</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>10.79%</t>
+          <t>12.84%</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>-8.09%</t>
+          <t>-4.02%</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>62.16%</t>
+          <t>58.33%</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Wayne County</t>
+          <t>Warren County</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>$17,307,851</t>
+          <t>$40,559,548</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>11.45%</t>
+          <t>10.51%</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>-14.97%</t>
+          <t>-12.60%</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>67.39%</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Westchester County</t>
+          <t>Washington County</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>$946,545,198</t>
+          <t>$17,881,752</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>11.88%</t>
+          <t>10.79%</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>-5.59%</t>
+          <t>-8.09%</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>61.54%</t>
+          <t>62.16%</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Wyoming County</t>
+          <t>Wayne County</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>$3,340,939</t>
+          <t>$17,307,851</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>14.97%</t>
+          <t>11.45%</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>-48.04%</t>
+          <t>-14.97%</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>78.26%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Yates County</t>
+          <t>Westchester County</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>403</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>$17,924,279</t>
+          <t>$946,545,198</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>6.28%</t>
+          <t>11.88%</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>-5.01%</t>
+          <t>-5.59%</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>57.89%</t>
+          <t>61.54%</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Wyoming County</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>8,743</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>$29,720,633,621</t>
+          <t>$3,340,939</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>8.36%</t>
+          <t>14.97%</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>-12.97%</t>
+          <t>-48.04%</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>69.53%</t>
+          <t>78.26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Yates County</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>$17,924,279</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.28%</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>-5.01%</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>57.89%</t>
         </is>
       </c>
     </row>
@@ -2483,7 +2515,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2492,59 +2524,59 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District 1</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$204,463,777</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.50%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-7.52%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -2556,423 +2588,423 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Congressional District 10</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>998</t>
+          <t>8,743</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$5,353,749,888</t>
+          <t>$29,720,633,621</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.14%</t>
+          <t>8.36%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-12.08%</t>
+          <t>-12.97%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>68.34%</t>
+          <t>69.53%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Congressional District 11</t>
+          <t>1st Congressional district</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$379,262,147</t>
+          <t>$204,463,777</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.11%</t>
+          <t>6.50%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-29.57%</t>
+          <t>-7.52%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>79.10%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Congressional District 12</t>
+          <t>2nd Congressional district</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1,263</t>
+          <t>174</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$6,432,780,970</t>
+          <t>$305,230,249</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.57%</t>
+          <t>4.66%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-4.88%</t>
+          <t>-35.44%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>58.43%</t>
+          <t>78.74%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Congressional District 13</t>
+          <t>3rd Congressional district</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>230</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$2,283,294,652</t>
+          <t>$469,399,724</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.81%</t>
+          <t>8.37%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-22.03%</t>
+          <t>-7.93%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>73.67%</t>
+          <t>64.35%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Congressional District 14</t>
+          <t>4th Congressional district</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>149</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$513,210,548</t>
+          <t>$502,049,301</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.44%</t>
+          <t>8.38%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-28.24%</t>
+          <t>-7.75%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>85.98%</t>
+          <t>65.77%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Congressional District 15</t>
+          <t>5th Congressional district</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>107</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$1,644,389,042</t>
+          <t>$750,810,561</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.57%</t>
+          <t>2.31%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-28.72%</t>
+          <t>-45.01%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>82.33%</t>
+          <t>85.98%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Congressional District 16</t>
+          <t>6th Congressional district</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$743,278,393</t>
+          <t>$457,404,362</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.14%</t>
+          <t>8.82%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-10.46%</t>
+          <t>-13.80%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>67.32%</t>
+          <t>78.33%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Congressional District 17</t>
+          <t>7th Congressional district</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>237</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$458,920,276</t>
+          <t>$771,352,359</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10.76%</t>
+          <t>8.39%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-6.85%</t>
+          <t>-18.61%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>60.51%</t>
+          <t>73.42%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Congressional District 18</t>
+          <t>8th Congressional district</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>133</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$407,783,841</t>
+          <t>$795,011,373</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11.44%</t>
+          <t>3.99%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-9.01%</t>
+          <t>-39.84%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>65.26%</t>
+          <t>80.45%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Congressional District 19</t>
+          <t>9th Congressional district</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>190</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$426,123,173</t>
+          <t>$512,866,784</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.74%</t>
+          <t>7.96%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-12.44%</t>
+          <t>-15.35%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>68.22%</t>
+          <t>71.05%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Congressional District 2</t>
+          <t>10th Congressional district</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>998</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$305,230,249</t>
+          <t>$5,353,749,888</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.66%</t>
+          <t>9.14%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-35.44%</t>
+          <t>-12.08%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>78.74%</t>
+          <t>68.34%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Congressional District 20</t>
+          <t>11th Congressional district</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$2,657,022,188</t>
+          <t>$379,262,147</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>7.02%</t>
+          <t>8.11%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-15.90%</t>
+          <t>-29.57%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>75.17%</t>
+          <t>79.10%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Congressional District 21</t>
+          <t>12th Congressional district</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>1,263</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$397,113,731</t>
+          <t>$6,432,780,970</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>8.28%</t>
+          <t>10.57%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-14.13%</t>
+          <t>-4.88%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>69.41%</t>
+          <t>58.43%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Congressional District 22</t>
+          <t>13th Congressional district</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2982,406 +3014,438 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$595,312,831</t>
+          <t>$2,283,294,652</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8.99%</t>
+          <t>6.81%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-11.51%</t>
+          <t>-22.03%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>68.62%</t>
+          <t>73.67%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Congressional District 23</t>
+          <t>14th Congressional district</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>107</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$345,914,627</t>
+          <t>$513,210,548</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>8.87%</t>
+          <t>4.44%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-14.53%</t>
+          <t>-28.24%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>72.25%</t>
+          <t>85.98%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Congressional District 24</t>
+          <t>15th Congressional district</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$459,054,158</t>
+          <t>$1,644,389,042</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>9.74%</t>
+          <t>4.57%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-19.11%</t>
+          <t>-28.72%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>74.37%</t>
+          <t>82.33%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Congressional District 25</t>
+          <t>16th Congressional district</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>257</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$1,206,055,644</t>
+          <t>$743,278,393</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>7.20%</t>
+          <t>9.14%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-12.31%</t>
+          <t>-10.46%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>71.30%</t>
+          <t>67.32%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Congressional District 26</t>
+          <t>17th Congressional district</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>352</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$648,779,022</t>
+          <t>$458,920,276</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>6.33%</t>
+          <t>10.76%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-15.26%</t>
+          <t>-6.85%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>77.78%</t>
+          <t>60.51%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Congressional District 3</t>
+          <t>18th Congressional district</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>285</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$469,399,724</t>
+          <t>$407,783,841</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>8.37%</t>
+          <t>11.44%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-7.93%</t>
+          <t>-9.01%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>64.35%</t>
+          <t>65.26%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Congressional District 4</t>
+          <t>19th Congressional district</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>494</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$502,049,301</t>
+          <t>$426,123,173</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>8.38%</t>
+          <t>8.74%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-7.75%</t>
+          <t>-12.44%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>65.77%</t>
+          <t>68.22%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Congressional District 5</t>
+          <t>20th Congressional district</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>447</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$750,810,561</t>
+          <t>$2,657,022,188</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.31%</t>
+          <t>7.02%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-45.01%</t>
+          <t>-15.90%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>85.98%</t>
+          <t>75.17%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Congressional District 6</t>
+          <t>21st Congressional district</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>425</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$457,404,362</t>
+          <t>$397,113,731</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>8.82%</t>
+          <t>8.28%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-13.80%</t>
+          <t>-14.13%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>78.33%</t>
+          <t>69.41%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Congressional District 7</t>
+          <t>22nd Congressional district</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>376</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$771,352,359</t>
+          <t>$595,312,831</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>8.39%</t>
+          <t>8.99%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-18.61%</t>
+          <t>-11.51%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>73.42%</t>
+          <t>68.62%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Congressional District 8</t>
+          <t>23rd Congressional district</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>346</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$795,011,373</t>
+          <t>$345,914,627</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3.99%</t>
+          <t>8.87%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-39.84%</t>
+          <t>-14.53%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>80.45%</t>
+          <t>72.25%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Congressional District 9</t>
+          <t>24th Congressional district</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>359</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$512,866,784</t>
+          <t>$459,054,158</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>7.96%</t>
+          <t>9.74%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-15.35%</t>
+          <t>-19.11%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>71.05%</t>
+          <t>74.37%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>25th Congressional district</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>8,743</t>
+          <t>338</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$29,720,633,621</t>
+          <t>$1,206,055,644</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>8.36%</t>
+          <t>7.20%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-12.97%</t>
+          <t>-12.31%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>69.53%</t>
+          <t>71.30%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>26th Congressional district</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>$648,779,022</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.33%</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>-15.26%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>77.78%</t>
         </is>
       </c>
     </row>
@@ -3406,34 +3470,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3465,128 +3529,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2,456</t>
+          <t>1,659</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$2,154,691,457</t>
+          <t>$24,863,390,108</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.85%</t>
+          <t>4.77%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-14.15%</t>
+          <t>-7.94%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>70.03%</t>
+          <t>70.40%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1,333</t>
+          <t>2,456</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$398,978,608</t>
+          <t>$2,154,691,457</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.52%</t>
+          <t>8.85%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-17.50%</t>
+          <t>-14.15%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>69.32%</t>
+          <t>70.03%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>1,333</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$2,023,453,820</t>
+          <t>$398,978,608</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.70%</t>
+          <t>9.52%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-15.92%</t>
+          <t>-17.50%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>74.24%</t>
+          <t>69.32%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1,659</t>
+          <t>792</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$24,863,390,108</t>
+          <t>$2,023,453,820</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.77%</t>
+          <t>6.70%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-7.94%</t>
+          <t>-15.92%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>70.40%</t>
+          <t>74.24%</t>
         </is>
       </c>
     </row>
@@ -3675,34 +3739,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3734,7 +3798,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3766,7 +3830,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3798,7 +3862,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3862,7 +3926,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3894,7 +3958,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3926,160 +3990,160 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mutual/Membership Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>688</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$464,396</t>
+          <t>$1,769,339,760</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.64%</t>
+          <t>9.15%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-48.61%</t>
+          <t>-17.88%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>70.06%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>143</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$1,769,339,760</t>
+          <t>$207,691,048</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9.15%</t>
+          <t>11.30%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-17.88%</t>
+          <t>-1.25%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>70.06%</t>
+          <t>53.85%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Mutual/membership benefit</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$207,691,048</t>
+          <t>$464,396</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11.30%</t>
+          <t>3.64%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-1.25%</t>
+          <t>-48.61%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>53.85%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1,909</t>
+          <t>108</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$7,925,044,037</t>
+          <t>$3,918,382,779</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7.47%</t>
+          <t>4.55%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-16.83%</t>
+          <t>-3.33%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>72.97%</t>
+          <t>58.33%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>1,909</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$3,918,382,779</t>
+          <t>$7,925,044,037</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.55%</t>
+          <t>7.47%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-3.33%</t>
+          <t>-16.83%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>58.33%</t>
+          <t>72.97%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/new-york_overview.xlsx
+++ b/data/processed/state_overviews/new-york_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>69.53%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>8,743</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$29,720,633,621</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>8.36%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-12.97%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>69.53%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>69.53%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>8,743</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$29,720,633,621</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>8.36%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-12.97%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>69.53%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>75.38%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>264</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$2,406,871,046</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>6.19%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-18.98%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>75.38%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>93.10%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>29</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$51,695,515</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2.18%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-37.98%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>93.10%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>84.21%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>342</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$2,234,969,031</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>4.81%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-29.98%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>84.21%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>74.19%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>93</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$75,747,507</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>7.08%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-16.89%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>74.19%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>72.73%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>44</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$58,357,343</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>8.11%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-32.60%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>72.73%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>78.05%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>41</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$133,706,446</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>10.08%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-19.56%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>78.05%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>74.42%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>86</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$61,628,665</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>11.47%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-15.76%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>74.42%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>63.41%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>41</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$42,068,377</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>8.55%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-7.21%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>63.41%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>88.89%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$21,563,962</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>11.52%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-16.59%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>88.89%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>75.68%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>37</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$37,650,159</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>6.71%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-21.85%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>75.68%</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>61.54%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>65</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$21,722,705</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>16.10%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-4.05%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>61.54%</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>64.29%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>28</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$30,007,120</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>17.46%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>-8.64%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>64.29%</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>75.61%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>41</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$53,246,645</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>6.82%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>-22.88%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>75.61%</t>
         </is>
       </c>
     </row>
@@ -948,27 +948,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>59.38%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>128</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>$125,953,472</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>10.64%</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>-4.76%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>59.38%</t>
         </is>
       </c>
     </row>
@@ -980,27 +980,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>76.90%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>407</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>$652,401,029</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>6.93%</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>-13.55%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>76.90%</t>
         </is>
       </c>
     </row>
@@ -1012,27 +1012,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>65.79%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>38</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>$18,518,765</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>8.16%</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>-17.13%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>65.79%</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1044,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>65.00%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>$40,779,354</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>5.63%</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>-19.50%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>65.00%</t>
         </is>
       </c>
     </row>
@@ -1076,27 +1076,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>73.68%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>$13,523,440</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>8.39%</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>-10.31%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>73.68%</t>
         </is>
       </c>
     </row>
@@ -1108,27 +1108,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>76.00%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>$15,428,332</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>20.05%</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>-41.55%</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>76.00%</t>
         </is>
       </c>
     </row>
@@ -1140,27 +1140,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>82.14%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>28</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>$8,151,000</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>-1.05%</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>-46.70%</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>82.14%</t>
         </is>
       </c>
     </row>
@@ -1172,27 +1172,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>42.86%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>$3,403,022</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>25.92%</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>0.76%</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>42.86%</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1204,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>72.73%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>$6,012,527</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>11.07%</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>-13.48%</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>72.73%</t>
         </is>
       </c>
     </row>
@@ -1236,27 +1236,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>76.92%</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>65</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>$82,110,932</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>6.77%</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>-21.74%</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>76.92%</t>
         </is>
       </c>
     </row>
@@ -1268,27 +1268,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>72.61%</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>847</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>$3,255,937,610</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>7.98%</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>-16.29%</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>72.61%</t>
         </is>
       </c>
     </row>
@@ -1300,27 +1300,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>$6,975,187</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>9.02%</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>-24.39%</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -1332,27 +1332,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>$32,820,899</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>5.22%</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>-18.12%</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1364,27 +1364,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>69.77%</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>43</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>$48,695,424</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>10.55%</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>-10.25%</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>69.77%</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>71.34%</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>335</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>$1,205,673,702</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>7.20%</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>-12.27%</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>71.34%</t>
         </is>
       </c>
     </row>
@@ -1428,27 +1428,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>77.27%</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>$25,744,272</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2.42%</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>-39.37%</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>77.27%</t>
         </is>
       </c>
     </row>
@@ -1460,27 +1460,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>64.31%</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>353</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>$919,876,295</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>7.90%</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>-7.69%</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>64.31%</t>
         </is>
       </c>
     </row>
@@ -1492,27 +1492,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>63.26%</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>2,267</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>$12,596,955,661</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>9.42%</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>-8.47%</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>63.26%</t>
         </is>
       </c>
     </row>
@@ -1524,27 +1524,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>69.35%</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>62</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>$56,445,700</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>10.50%</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>-12.75%</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>69.35%</t>
         </is>
       </c>
     </row>
@@ -1556,27 +1556,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>69.07%</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>97</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>$146,658,798</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>7.96%</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>-10.70%</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>69.07%</t>
         </is>
       </c>
     </row>
@@ -1588,27 +1588,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>68.22%</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>236</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>$399,958,609</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>8.87%</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>-13.03%</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>68.22%</t>
         </is>
       </c>
     </row>
@@ -1620,27 +1620,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>73.53%</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>68</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>$82,626,836</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>10.80%</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>-16.36%</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>73.53%</t>
         </is>
       </c>
     </row>
@@ -1652,27 +1652,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>72.55%</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>102</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>$172,250,192</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>10.62%</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>-13.68%</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>72.55%</t>
         </is>
       </c>
     </row>
@@ -1684,27 +1684,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>73.33%</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>$12,737,512</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>5.79%</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>-19.68%</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>73.33%</t>
         </is>
       </c>
     </row>
@@ -1716,27 +1716,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>82.93%</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>41</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>$55,489,027</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>6.94%</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>-19.36%</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>82.93%</t>
         </is>
       </c>
     </row>
@@ -1748,27 +1748,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>72.50%</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>$83,613,445</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1.79%</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>-8.20%</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>72.50%</t>
         </is>
       </c>
     </row>
@@ -1780,27 +1780,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>45</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>$21,445,036</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>9.91%</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>-41.94%</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -1812,27 +1812,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>78.42%</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>366</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>$1,562,020,271</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>6.68%</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>-23.35%</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>78.42%</t>
         </is>
       </c>
     </row>
@@ -1844,27 +1844,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>74.32%</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>74</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>$87,329,228</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>11.85%</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>-15.67%</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>74.32%</t>
         </is>
       </c>
     </row>
@@ -1876,27 +1876,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>81.90%</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>105</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>$310,814,609</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>7.68%</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>-33.14%</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>81.90%</t>
         </is>
       </c>
     </row>
@@ -1908,27 +1908,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>63.70%</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>146</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>$213,458,133</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>7.85%</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>-8.82%</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>63.70%</t>
         </is>
       </c>
     </row>
@@ -1940,27 +1940,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>69.62%</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>79</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>$89,557,974</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>13.89%</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>-11.42%</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>69.62%</t>
         </is>
       </c>
     </row>
@@ -1972,27 +1972,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>55</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>$107,404,457</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2.57%</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>-13.91%</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -2004,27 +2004,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>76.92%</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>$6,777,666</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>6.27%</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>-46.81%</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>76.92%</t>
         </is>
       </c>
     </row>
@@ -2036,27 +2036,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>$8,670,113</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>3.54%</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>-22.77%</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -2068,27 +2068,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>53.33%</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>$4,222,419</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>10.85%</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>-2.59%</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>53.33%</t>
         </is>
       </c>
     </row>
@@ -2100,27 +2100,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>71.05%</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>76</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>$74,466,432</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>6.82%</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>-12.82%</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>71.05%</t>
         </is>
       </c>
     </row>
@@ -2132,27 +2132,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>67.86%</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>56</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>$77,896,181</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>12.00%</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>-14.36%</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>67.86%</t>
         </is>
       </c>
     </row>
@@ -2164,27 +2164,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>72.08%</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>419</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>$509,694,026</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>5.90%</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>-13.47%</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>72.08%</t>
         </is>
       </c>
     </row>
@@ -2196,27 +2196,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>62.50%</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>$25,028,059</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>4.12%</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>-11.08%</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>62.50%</t>
         </is>
       </c>
     </row>
@@ -2228,27 +2228,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>58.82%</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>$7,538,238</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>10.54%</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>-4.27%</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>58.82%</t>
         </is>
       </c>
     </row>
@@ -2260,27 +2260,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>65.45%</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>110</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>$147,784,784</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>10.72%</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>-11.67%</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>65.45%</t>
         </is>
       </c>
     </row>
@@ -2292,27 +2292,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>58.33%</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>96</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>$124,990,865</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>12.84%</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>-4.02%</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>58.33%</t>
         </is>
       </c>
     </row>
@@ -2324,27 +2324,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>67.39%</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>46</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>$40,559,548</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>10.51%</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>-12.60%</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>67.39%</t>
         </is>
       </c>
     </row>
@@ -2356,27 +2356,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>62.16%</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>37</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>$17,881,752</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>10.79%</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>-8.09%</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>62.16%</t>
         </is>
       </c>
     </row>
@@ -2388,27 +2388,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>$17,307,851</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>11.45%</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>-14.97%</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -2420,27 +2420,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>61.54%</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>403</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>$946,545,198</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>11.88%</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>-5.59%</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>61.54%</t>
         </is>
       </c>
     </row>
@@ -2452,27 +2452,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>78.26%</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>$3,340,939</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>14.97%</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>-48.04%</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>78.26%</t>
         </is>
       </c>
     </row>
@@ -2484,27 +2484,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>57.89%</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>$17,924,279</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>6.28%</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>-5.01%</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>57.89%</t>
         </is>
       </c>
     </row>
@@ -2529,27 +2529,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -2561,27 +2561,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -2593,859 +2593,859 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>69.53%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>8,743</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$29,720,633,621</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>8.36%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-12.97%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>69.53%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1st Congressional district</t>
+          <t>Congressional District 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>245</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$204,463,777</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>6.50%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-7.52%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2nd Congressional district</t>
+          <t>Congressional District 10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>68.34%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$305,230,249</t>
+          <t>998</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.66%</t>
+          <t>$5,353,749,888</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-35.44%</t>
+          <t>9.14%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>78.74%</t>
+          <t>-12.08%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3rd Congressional district</t>
+          <t>Congressional District 11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>79.10%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$469,399,724</t>
+          <t>134</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.37%</t>
+          <t>$379,262,147</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-7.93%</t>
+          <t>8.11%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>64.35%</t>
+          <t>-29.57%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4th Congressional district</t>
+          <t>Congressional District 12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>58.43%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$502,049,301</t>
+          <t>1,263</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.38%</t>
+          <t>$6,432,780,970</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-7.75%</t>
+          <t>10.57%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>65.77%</t>
+          <t>-4.88%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5th Congressional district</t>
+          <t>Congressional District 13</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>73.67%</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$750,810,561</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.31%</t>
+          <t>$2,283,294,652</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-45.01%</t>
+          <t>6.81%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>85.98%</t>
+          <t>-22.03%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6th Congressional district</t>
+          <t>Congressional District 14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>85.98%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$457,404,362</t>
+          <t>107</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8.82%</t>
+          <t>$513,210,548</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-13.80%</t>
+          <t>4.44%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>78.33%</t>
+          <t>-28.24%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7th Congressional district</t>
+          <t>Congressional District 15</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>82.33%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$771,352,359</t>
+          <t>232</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8.39%</t>
+          <t>$1,644,389,042</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-18.61%</t>
+          <t>4.57%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>73.42%</t>
+          <t>-28.72%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8th Congressional district</t>
+          <t>Congressional District 16</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>67.32%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$795,011,373</t>
+          <t>257</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.99%</t>
+          <t>$743,278,393</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-39.84%</t>
+          <t>9.14%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>80.45%</t>
+          <t>-10.46%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>9th Congressional district</t>
+          <t>Congressional District 17</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>60.51%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$512,866,784</t>
+          <t>352</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7.96%</t>
+          <t>$458,920,276</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-15.35%</t>
+          <t>10.76%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>71.05%</t>
+          <t>-6.85%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10th Congressional district</t>
+          <t>Congressional District 18</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>998</t>
+          <t>65.26%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$5,353,749,888</t>
+          <t>285</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>9.14%</t>
+          <t>$407,783,841</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-12.08%</t>
+          <t>11.44%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>68.34%</t>
+          <t>-9.01%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11th Congressional district</t>
+          <t>Congressional District 19</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>68.22%</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$379,262,147</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>8.11%</t>
+          <t>$426,123,173</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-29.57%</t>
+          <t>8.74%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>79.10%</t>
+          <t>-12.44%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12th Congressional district</t>
+          <t>Congressional District 2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1,263</t>
+          <t>78.74%</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$6,432,780,970</t>
+          <t>174</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10.57%</t>
+          <t>$305,230,249</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-4.88%</t>
+          <t>4.66%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>58.43%</t>
+          <t>-35.44%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>13th Congressional district</t>
+          <t>Congressional District 20</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>75.17%</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$2,283,294,652</t>
+          <t>447</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>6.81%</t>
+          <t>$2,657,022,188</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-22.03%</t>
+          <t>7.02%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>73.67%</t>
+          <t>-15.90%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>14th Congressional district</t>
+          <t>Congressional District 21</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>69.41%</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$513,210,548</t>
+          <t>425</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.44%</t>
+          <t>$397,113,731</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-28.24%</t>
+          <t>8.28%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>85.98%</t>
+          <t>-14.13%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>15th Congressional district</t>
+          <t>Congressional District 22</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>68.62%</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$1,644,389,042</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.57%</t>
+          <t>$595,312,831</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-28.72%</t>
+          <t>8.99%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>82.33%</t>
+          <t>-11.51%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>16th Congressional district</t>
+          <t>Congressional District 23</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>72.25%</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$743,278,393</t>
+          <t>346</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>9.14%</t>
+          <t>$345,914,627</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-10.46%</t>
+          <t>8.87%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>67.32%</t>
+          <t>-14.53%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>17th Congressional district</t>
+          <t>Congressional District 24</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>74.37%</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$458,920,276</t>
+          <t>359</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10.76%</t>
+          <t>$459,054,158</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-6.85%</t>
+          <t>9.74%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>60.51%</t>
+          <t>-19.11%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>18th Congressional district</t>
+          <t>Congressional District 25</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>71.30%</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$407,783,841</t>
+          <t>338</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>11.44%</t>
+          <t>$1,206,055,644</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-9.01%</t>
+          <t>7.20%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>65.26%</t>
+          <t>-12.31%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>19th Congressional district</t>
+          <t>Congressional District 26</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>77.78%</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$426,123,173</t>
+          <t>369</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>8.74%</t>
+          <t>$648,779,022</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-12.44%</t>
+          <t>6.33%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>68.22%</t>
+          <t>-15.26%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20th Congressional district</t>
+          <t>Congressional District 3</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>64.35%</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$2,657,022,188</t>
+          <t>230</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>7.02%</t>
+          <t>$469,399,724</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-15.90%</t>
+          <t>8.37%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>75.17%</t>
+          <t>-7.93%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>21st Congressional district</t>
+          <t>Congressional District 4</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>65.77%</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$397,113,731</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>8.28%</t>
+          <t>$502,049,301</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-14.13%</t>
+          <t>8.38%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>69.41%</t>
+          <t>-7.75%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>22nd Congressional district</t>
+          <t>Congressional District 5</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>85.98%</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$595,312,831</t>
+          <t>107</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>8.99%</t>
+          <t>$750,810,561</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-11.51%</t>
+          <t>2.31%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>68.62%</t>
+          <t>-45.01%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>23rd Congressional district</t>
+          <t>Congressional District 6</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>78.33%</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$345,914,627</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>8.87%</t>
+          <t>$457,404,362</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-14.53%</t>
+          <t>8.82%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>72.25%</t>
+          <t>-13.80%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>24th Congressional district</t>
+          <t>Congressional District 7</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>73.42%</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$459,054,158</t>
+          <t>237</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>9.74%</t>
+          <t>$771,352,359</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-19.11%</t>
+          <t>8.39%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>74.37%</t>
+          <t>-18.61%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>25th Congressional district</t>
+          <t>Congressional District 8</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>80.45%</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$1,206,055,644</t>
+          <t>133</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>7.20%</t>
+          <t>$795,011,373</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-12.31%</t>
+          <t>3.99%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>71.30%</t>
+          <t>-39.84%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>26th Congressional district</t>
+          <t>Congressional District 9</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>71.05%</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$648,779,022</t>
+          <t>190</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>6.33%</t>
+          <t>$512,866,784</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-15.26%</t>
+          <t>7.96%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>77.78%</t>
+          <t>-15.35%</t>
         </is>
       </c>
     </row>
@@ -3470,187 +3470,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.74%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>2,170</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$260,846,634</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>12.10%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-15.01%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.74%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1,659</t>
+          <t>70.03%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$24,863,390,108</t>
+          <t>2,456</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.77%</t>
+          <t>$2,154,691,457</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-7.94%</t>
+          <t>8.85%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>70.40%</t>
+          <t>-14.15%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2,456</t>
+          <t>69.32%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$2,154,691,457</t>
+          <t>1,333</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.85%</t>
+          <t>$398,978,608</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-14.15%</t>
+          <t>9.52%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>70.03%</t>
+          <t>-17.50%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1,333</t>
+          <t>74.24%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$398,978,608</t>
+          <t>792</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.52%</t>
+          <t>$2,023,453,820</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-17.50%</t>
+          <t>6.70%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>69.32%</t>
+          <t>-15.92%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>70.40%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$2,023,453,820</t>
+          <t>1,659</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.70%</t>
+          <t>$24,863,390,108</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-15.92%</t>
+          <t>4.77%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>74.24%</t>
+          <t>-7.94%</t>
         </is>
       </c>
     </row>
@@ -3662,27 +3662,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>62.76%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>333</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$19,272,994</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>24.92%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-14.33%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>62.76%</t>
         </is>
       </c>
     </row>
@@ -3694,27 +3694,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>69.53%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>8,743</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$29,720,633,621</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>8.36%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-12.97%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>69.53%</t>
         </is>
       </c>
     </row>
@@ -3739,155 +3739,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>65.90%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>1,217</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$1,124,391,100</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>13.61%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-11.35%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>65.90%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>68.73%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>1,049</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$3,589,274,368</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>8.50%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-10.04%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>68.73%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>55.51%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>263</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$652,366,023</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>14.21%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-4.77%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>55.51%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>72.19%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>802</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$3,752,184,647</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>6.13%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-14.51%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>72.19%</t>
         </is>
       </c>
     </row>
@@ -3899,251 +3899,251 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>69.00%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>100</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$772,755,213</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1.01%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-4.60%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>69.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>71.83%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>2,286</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$5,177,398,768</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>7.80%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-16.40%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>71.83%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>58.96%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>173</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$831,341,482</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>7.17%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-6.62%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>58.96%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Mutual/Membership Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>60.00%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$1,769,339,760</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.15%</t>
+          <t>$464,396</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-17.88%</t>
+          <t>3.64%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>70.06%</t>
+          <t>-48.61%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>70.06%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$207,691,048</t>
+          <t>688</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11.30%</t>
+          <t>$1,769,339,760</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-1.25%</t>
+          <t>9.15%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>53.85%</t>
+          <t>-17.88%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mutual/membership benefit</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>53.85%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$464,396</t>
+          <t>143</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.64%</t>
+          <t>$207,691,048</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-48.61%</t>
+          <t>11.30%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>-1.25%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>72.97%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$3,918,382,779</t>
+          <t>1,909</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.55%</t>
+          <t>$7,925,044,037</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-3.33%</t>
+          <t>7.47%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>58.33%</t>
+          <t>-16.83%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1,909</t>
+          <t>58.33%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$7,925,044,037</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7.47%</t>
+          <t>$3,918,382,779</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-16.83%</t>
+          <t>4.55%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>72.97%</t>
+          <t>-3.33%</t>
         </is>
       </c>
     </row>
@@ -4155,27 +4155,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>69.53%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>8,743</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$29,720,633,621</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>8.36%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-12.97%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>69.53%</t>
         </is>
       </c>
     </row>
